--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -19,6 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">2021-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B118006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11uiowenklsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b118006</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -64,19 +90,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -110,8 +129,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -131,101 +150,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:CD1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
